--- a/Walter/DBScripts/NissanFrontier.xlsx
+++ b/Walter/DBScripts/NissanFrontier.xlsx
@@ -16,16 +16,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>trest</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note </t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>MPG</t>
+  </si>
+  <si>
+    <t>Purchase Vehicle - $0 down</t>
+  </si>
+  <si>
+    <t>Mother Wax</t>
+  </si>
+  <si>
+    <t>Clay Bar</t>
+  </si>
+  <si>
+    <t>Touch-up Paint</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Hood Protector</t>
+  </si>
+  <si>
+    <t>Body Side Molding $40 each side</t>
+  </si>
+  <si>
+    <t>Window sun shade</t>
+  </si>
+  <si>
+    <t>1st Loan Payment</t>
+  </si>
+  <si>
+    <t>Gas - 17.45 gals</t>
+  </si>
+  <si>
+    <t>Gas - 18.00 gals</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Gas - 16.195 gals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +88,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +129,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,19 +439,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42809</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>42811</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>42812</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>19.739999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>42817</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>42818</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>19.239999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>42821</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <f>156.01 - 1.0685 * (80)</f>
+        <v>70.529999999999987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>42821</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <f>156.01-D7</f>
+        <v>85.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>42822</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>42828</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>299</v>
+      </c>
+      <c r="B11" s="5">
+        <v>42829</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6">
+        <v>41.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>42847</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2190.5100000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>589</v>
+      </c>
+      <c r="B13" s="5">
+        <v>42847</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>48.58</v>
+      </c>
+      <c r="E13" s="7">
+        <f>(A13-A11)/18</f>
+        <v>16.111111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>854</v>
+      </c>
+      <c r="B14" s="5">
+        <v>42854</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E14" s="7">
+        <f>(A14-A13)/16.195</f>
+        <v>16.363075023155293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Walter/DBScripts/NissanFrontier.xlsx
+++ b/Walter/DBScripts/NissanFrontier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Mileage</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Gas - 16.195 gals</t>
+  </si>
+  <si>
+    <t>Lift Kit</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,8 +638,18 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="4">
+        <v>907</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42857</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3">
+        <v>598.35</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
